--- a/EnhetsReg_Systemtyp_DDMMÅÅ.xlsx
+++ b/EnhetsReg_Systemtyp_DDMMÅÅ.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raker\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05051672-5A5D-43D5-83C1-182F252EE291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EF8A683-637C-4278-9DDD-ECD1BD4447CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{F9987A08-5AA7-4879-A1AE-4987B6BA1192}"/>
   </bookViews>
   <sheets>
     <sheet name="Registrering" sheetId="1" r:id="rId1"/>
-    <sheet name="Instruktioner" sheetId="3" r:id="rId2"/>
+    <sheet name="Instruktioner" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="Exempel" sheetId="5" r:id="rId3"/>
-    <sheet name="Listor" sheetId="2" r:id="rId4"/>
-    <sheet name="Test" sheetId="6" r:id="rId5"/>
-    <sheet name="Test (2)" sheetId="7" r:id="rId6"/>
+    <sheet name="Listor" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Test" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="Test (2)" sheetId="7" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="128">
   <si>
     <t>Fastighet:</t>
   </si>
@@ -440,9 +440,37 @@
     </r>
   </si>
   <si>
+    <t>Fyll i Register här</t>
+  </si>
+  <si>
+    <t>Regina</t>
+  </si>
+  <si>
+    <t>Heden</t>
+  </si>
+  <si>
+    <t>Plåten</t>
+  </si>
+  <si>
+    <t>Välmågen</t>
+  </si>
+  <si>
+    <t>Gullbergsvass</t>
+  </si>
+  <si>
+    <t>Nordstaden</t>
+  </si>
+  <si>
+    <t>Krokslätt</t>
+  </si>
+  <si>
+    <t>PoE</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Fyll i, alternativt be installatör eller underentreprenör att fylla i den. Ladda sedan upp exceldokumentet till detta formulär och fortsätt registreringen.
-Exceldokumentet ska vara döpt </t>
+      <t xml:space="preserve">I varje kolumn finns en mer förklarande text.
+Fyll i allt som är relevant för respektive enhet. 
+Döp filen till </t>
     </r>
     <r>
       <rPr>
@@ -454,6 +482,17 @@
         <scheme val="minor"/>
       </rPr>
       <t>EnhetsReg_Systemtyp_DDMMÅÅ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> och spara dokumentet.
+Ladda upp ifyllt exceldokument i registreringsformuläret.</t>
     </r>
   </si>
 </sst>
@@ -567,14 +606,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="4" tint="0.79998168889431442"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -595,6 +626,14 @@
       <u/>
       <sz val="11"/>
       <color theme="4" tint="0.79998168889431442"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="3" tint="0.749992370372631"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1022,14 +1061,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1045,10 +1083,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1057,13 +1108,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1116,18 +1167,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1185,7 +1224,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="70">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1772,6 +1811,9 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
@@ -1833,24 +1875,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A639971E-B801-4C94-AEAA-F579F7F3A115}" name="Table1" displayName="Table1" ref="A23:P53" totalsRowShown="0" headerRowDxfId="68">
-  <autoFilter ref="A23:P53" xr:uid="{A639971E-B801-4C94-AEAA-F579F7F3A115}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{E5710305-12CC-49E2-AC00-F056ADB7D265}" name=" " dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{610E246D-95FC-42BF-85BA-5ED3D3420C82}" name="Enhetsbeteckning" dataDxfId="66"/>
-    <tableColumn id="9" xr3:uid="{724AAB7F-228D-41E3-A89F-26B6DF0A1866}" name="Enhetstyp" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{B4575FE6-72D5-4806-A294-686790A8A7C3}" name="Tillverkare" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{356AF520-2338-44F1-ADE2-4C6B6CEEB065}" name="Modell" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{D2D9AE86-7E48-4B49-925C-50C757659E77}" name="Installationsplacering" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{A34610F1-DB99-4064-A773-6B954640D8E9}" name="Installationsdatum" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{2F124861-F3EC-486D-8421-7CC1EAE0E9C4}" name="MAC Adress" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{DBF64C7E-7716-453F-B0F1-F98787230447}" name="Hostname" dataDxfId="59"/>
-    <tableColumn id="10" xr3:uid="{F0578AF7-58A7-EA41-AA51-0F6C1935A799}" name="Nuvarande IP" dataDxfId="58"/>
-    <tableColumn id="11" xr3:uid="{07F7CD17-66C3-47D7-B362-EE51D9D01F62}" name="Gruppsäkring" dataDxfId="57"/>
-    <tableColumn id="12" xr3:uid="{0457E7BC-4B0A-4FCE-BFF6-36990E8DB576}" name="Produktsida" dataDxfId="56"/>
-    <tableColumn id="13" xr3:uid="{94C0955B-BCD8-B44B-B87A-6966D90E91BE}" name="Uppfyller CRA" dataDxfId="55"/>
-    <tableColumn id="14" xr3:uid="{E3D33852-F080-3143-AD8C-9B22D7517024}" name="Inloggning" dataDxfId="54"/>
-    <tableColumn id="15" xr3:uid="{63FB1D18-E151-4D78-B1D7-D445011E20D4}" name="Internet" dataDxfId="53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A639971E-B801-4C94-AEAA-F579F7F3A115}" name="Table1" displayName="Table1" ref="A23:Q53" totalsRowShown="0" headerRowDxfId="69">
+  <autoFilter ref="A23:Q53" xr:uid="{A639971E-B801-4C94-AEAA-F579F7F3A115}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{E5710305-12CC-49E2-AC00-F056ADB7D265}" name=" " dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{610E246D-95FC-42BF-85BA-5ED3D3420C82}" name="Enhetsbeteckning" dataDxfId="67"/>
+    <tableColumn id="9" xr3:uid="{724AAB7F-228D-41E3-A89F-26B6DF0A1866}" name="Enhetstyp" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{B4575FE6-72D5-4806-A294-686790A8A7C3}" name="Tillverkare" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{356AF520-2338-44F1-ADE2-4C6B6CEEB065}" name="Modell" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{D2D9AE86-7E48-4B49-925C-50C757659E77}" name="Installationsplacering" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{A34610F1-DB99-4064-A773-6B954640D8E9}" name="Installationsdatum" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{2F124861-F3EC-486D-8421-7CC1EAE0E9C4}" name="MAC Adress" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{DBF64C7E-7716-453F-B0F1-F98787230447}" name="Hostname" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{F0578AF7-58A7-EA41-AA51-0F6C1935A799}" name="Nuvarande IP" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{07F7CD17-66C3-47D7-B362-EE51D9D01F62}" name="PoE" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{0457E7BC-4B0A-4FCE-BFF6-36990E8DB576}" name="Produktsida" dataDxfId="57"/>
+    <tableColumn id="13" xr3:uid="{94C0955B-BCD8-B44B-B87A-6966D90E91BE}" name="Uppfyller CRA" dataDxfId="56"/>
+    <tableColumn id="14" xr3:uid="{E3D33852-F080-3143-AD8C-9B22D7517024}" name="Inloggning" dataDxfId="55"/>
+    <tableColumn id="15" xr3:uid="{63FB1D18-E151-4D78-B1D7-D445011E20D4}" name="Internet" dataDxfId="54"/>
+    <tableColumn id="16" xr3:uid="{9644BD02-F77A-48B3-A3A5-49F5D1DB9C59}" name="Gruppsäkring" dataDxfId="53"/>
     <tableColumn id="17" xr3:uid="{455ECA1D-05A7-4B3C-8A70-790458113EFB}" name="Övriga Kommentar" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2273,90 +2316,91 @@
   <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <pane ySplit="23" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.25" customWidth="1"/>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.25" customWidth="1"/>
-    <col min="13" max="13" width="16.375" customWidth="1"/>
-    <col min="14" max="15" width="14.25" customWidth="1"/>
-    <col min="16" max="16" width="21.75" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
     <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.125" hidden="1"/>
+    <col min="19" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="G2" s="63" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="G2" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="58"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="62"/>
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="G3" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="G3" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="65"/>
       <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="19"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="61"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="20" t="s">
@@ -2367,18 +2411,18 @@
         <v>45593</v>
       </c>
       <c r="E5" s="19"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="L5" s="49" t="s">
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="L5" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="68" t="s">
+      <c r="M5" s="54"/>
+      <c r="N5" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="O5" s="69"/>
+      <c r="O5" s="73"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1">
       <c r="A6" s="20" t="s">
@@ -2386,14 +2430,14 @@
       </c>
       <c r="B6" s="26"/>
       <c r="E6" s="19"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="70"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="74"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="20" t="s">
@@ -2401,14 +2445,14 @@
       </c>
       <c r="B7" s="27"/>
       <c r="E7" s="19"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="70"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="74"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="A8" s="20" t="s">
@@ -2416,14 +2460,14 @@
       </c>
       <c r="B8" s="27"/>
       <c r="E8" s="19"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="69"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1">
       <c r="E9" s="19"/>
@@ -2452,61 +2496,61 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
-      <c r="F13" s="29"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="E14" s="13"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="72"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1">
-      <c r="F15" s="29"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="72"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="F16" s="29"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="72"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="F17" s="29"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="F18" s="29"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="74"/>
-    </row>
-    <row r="19" spans="1:16"/>
-    <row r="20" spans="1:16"/>
-    <row r="21" spans="1:16"/>
-    <row r="22" spans="1:16"/>
-    <row r="23" spans="1:16" ht="15">
+      <c r="F16" s="28"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="F17" s="28"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="F18" s="28"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="1:17"/>
+    <row r="20" spans="1:17"/>
+    <row r="21" spans="1:17"/>
+    <row r="22" spans="1:17"/>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -2538,12 +2582,12 @@
         <v>115</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M23" s="28" t="s">
+      <c r="M23" s="46" t="s">
         <v>108</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -2553,10 +2597,13 @@
         <v>110</v>
       </c>
       <c r="P23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -2574,8 +2621,9 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
@@ -2593,8 +2641,9 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -2612,8 +2661,9 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
@@ -2631,8 +2681,9 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -2650,8 +2701,9 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
@@ -2669,8 +2721,9 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
@@ -2688,8 +2741,9 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="3" t="s">
         <v>20</v>
       </c>
@@ -2707,8 +2761,9 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
@@ -2726,8 +2781,9 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -2745,8 +2801,9 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
@@ -2764,8 +2821,9 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
@@ -2783,8 +2841,9 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
@@ -2802,8 +2861,9 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -2821,8 +2881,9 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="3" t="s">
         <v>27</v>
       </c>
@@ -2840,8 +2901,9 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
@@ -2859,8 +2921,9 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
@@ -2878,8 +2941,9 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -2897,8 +2961,9 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
@@ -2916,8 +2981,9 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="3" t="s">
         <v>32</v>
       </c>
@@ -2935,8 +3001,9 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="3">
         <v>21</v>
       </c>
@@ -2954,8 +3021,9 @@
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="3">
         <v>22</v>
       </c>
@@ -2973,8 +3041,9 @@
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="3">
         <v>23</v>
       </c>
@@ -2992,8 +3061,9 @@
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="3">
         <v>24</v>
       </c>
@@ -3011,8 +3081,9 @@
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="3">
         <v>25</v>
       </c>
@@ -3030,8 +3101,9 @@
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="3">
         <v>26</v>
       </c>
@@ -3049,8 +3121,9 @@
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="3">
         <v>27</v>
       </c>
@@ -3068,8 +3141,9 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="3">
         <v>28</v>
       </c>
@@ -3087,8 +3161,9 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="3">
         <v>29</v>
       </c>
@@ -3106,8 +3181,9 @@
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="3">
         <v>30</v>
       </c>
@@ -3125,21 +3201,17 @@
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
-    </row>
-    <row r="54" spans="1:16"/>
-    <row r="55" spans="1:16"/>
-    <row r="56" spans="1:16"/>
-    <row r="57" spans="1:16"/>
-    <row r="58" spans="1:16"/>
-    <row r="59" spans="1:16"/>
-    <row r="60" spans="1:16"/>
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="1:17"/>
+    <row r="55" spans="1:17"/>
+    <row r="56" spans="1:17"/>
+    <row r="57" spans="1:17"/>
+    <row r="58" spans="1:17"/>
+    <row r="59" spans="1:17"/>
+    <row r="60" spans="1:17"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="L7:M7"/>
@@ -3155,6 +3227,11 @@
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="N7:O7"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E13:E18">
@@ -3162,14 +3239,13 @@
       <formula>ISERROR(SEARCH("@",E13))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="19">
+  <dataValidations count="20">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Välj vilken typ av enhet detta är. Om typen ej finns i listan vänligen skriv manuellt." sqref="C23" xr:uid="{E64EFD32-30D1-4F0B-B32E-8D8F0CFFD3C4}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Beskriv var enheten är installerad. Ex:_x000a_- Apparatskåp xx i Undercentral pl2_x000a_- Nätverkskåp XX i fläktrum F01 pl6" sqref="F23:F53" xr:uid="{856618E9-5BEB-4E73-9992-B8B3539CF1BA}"/>
     <dataValidation allowBlank="1" showInputMessage="1" prompt="Välj från listan eller skriv egen roll." sqref="C12" xr:uid="{DCE833DE-531B-4115-AAB9-520A35675A57}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="När installerades enheten?" sqref="G23:G53" xr:uid="{B43C85A3-881B-4803-A8B1-28670746E6B7}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Värdnamn, _x000a_Datornamn" sqref="I24:I53" xr:uid="{D50F0DB1-751F-42FD-B49B-C078F0E5D9F6}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enhetens Unika MAC adress" sqref="H23:H53" xr:uid="{06611070-6EDC-4B34-9056-7ABF8E911BE8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Skriv gärna vilken gruppsäkring som ger enheten ström, om du känner till detta." sqref="K23:K53" xr:uid="{87789C8C-B355-4813-8982-FA54E8048F88}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Länk till produktens websida med information on specifik produkt." sqref="L23:L53" xr:uid="{D10752B9-B365-4A1E-A760-BF1C42518902}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Är den här produkten kompatibel med kraven i EU_x000a_Cyber Resilience Act (CRA)?" sqref="M24:M53" xr:uid="{931B0678-09CA-4C9C-B2C0-E7344790F335}">
       <formula1>"Ja, Nej, Vet Ej"</formula1>
@@ -3177,24 +3253,29 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Fyll i inloggningsuppgifter till enheten._x000a_Om det finns flera separera dem med kommatecken._x000a_(Ej personliga konton)_x000a__x000a_Ex. Namn:Lösen, Admin:Admin." sqref="N23:N53" xr:uid="{7EC4D70F-611A-4340-BBBD-58D400BF97D1}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Värdnamn, Datornamn" sqref="I23" xr:uid="{6F3818F9-A4F9-45DB-837E-A6C41DCC47E2}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ange enhetens modellnamn." sqref="E23:E53" xr:uid="{00939575-3974-44AF-BF7B-D04FE8785B12}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Fyll i om det är något mer som behöver tilläggas för enheten." sqref="P23:P53" xr:uid="{E56C0609-53AD-45E5-911A-A3477F209906}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Fyll i om det är något mer som behöver tilläggas för enheten." sqref="Q23:Q53" xr:uid="{E56C0609-53AD-45E5-911A-A3477F209906}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Kommunicerar enheten på något vis med internet? Ex. Portar genom brandvägg, VPN, Proxy, mm" sqref="O23:O53" xr:uid="{B0296425-BF5B-4E47-B449-1EB66576ACB0}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ange vilket företag som tillverkat produkten" sqref="D23:D53" xr:uid="{D82F1A06-4126-40A7-94A6-74EADF212327}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enhetens beteckning i systemet." sqref="B23:B53" xr:uid="{F736A0D2-B992-4628-AED5-4A0F9352839B}"/>
     <dataValidation allowBlank="1" showInputMessage="1" prompt="Vem är beställare av arbetet." sqref="B8" xr:uid="{E62D1985-82BE-4817-80E0-142DF2FCA9AB}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Om enheten har en IP adress idag, ange den här, annars lämna tomt." sqref="J23:J53" xr:uid="{509B2FB7-856E-4BFD-A87B-1DACEF545AF1}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Övriga kommentarer eller information som kan vara bra för Alectas IT att veta om nätverksuppbyggnaden." sqref="G12:J18" xr:uid="{AA88DAAE-782F-47F8-801E-E84EEBDEA2D7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Skriv gärna vilken gruppsäkring som ger enheten ström, om du känner till detta." sqref="K23 P23:P53" xr:uid="{87789C8C-B355-4813-8982-FA54E8048F88}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Används Power over Ethernet (PoE) för att strömmsätta enheten?" sqref="K24:K53" xr:uid="{6B34A14B-CC0C-4298-AE49-26F8CC2394AB}">
+      <formula1>"Ja, Nej, Vet Ej"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1" xr:uid="{564EA9F7-36B2-46B0-9C22-BE9361D66BC1}"/>
+    <hyperlink ref="M23" r:id="rId2" xr:uid="{AB78F5D6-14F3-4D33-9059-F137F8D7242F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A24:A52" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -3237,7 +3318,7 @@
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -3257,24 +3338,24 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
-    <col min="6" max="6" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.75" customWidth="1"/>
-    <col min="12" max="12" width="9.125" customWidth="1"/>
-    <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.25" customWidth="1"/>
-    <col min="15" max="15" width="9.125" customWidth="1"/>
-    <col min="16" max="16384" width="9.125" hidden="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1">
@@ -3477,7 +3558,7 @@
       </c>
     </row>
     <row r="22" spans="1:13"/>
-    <row r="23" spans="1:13" ht="15">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4123,21 +4204,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC863F29-50B4-4D91-A8F8-1ECB9EE0A679}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O19" sqref="N19:O19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.25" style="7" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
         <v>38</v>
       </c>
@@ -4156,97 +4237,55 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4262,37 +4301,117 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="7" t="s">
-        <v>48</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
+    <sortCondition ref="A2:A20"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4302,91 +4421,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3936DAE1-6971-4C46-B281-74C7921A5FBD}">
   <dimension ref="A1:AE90"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.25" customWidth="1"/>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.25" customWidth="1"/>
-    <col min="13" max="13" width="16.375" customWidth="1"/>
-    <col min="14" max="15" width="14.25" customWidth="1"/>
-    <col min="16" max="16" width="21.75" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
     <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.125" hidden="1"/>
+    <col min="19" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="G2" s="63" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="G2" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="58"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="62"/>
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="G3" s="62" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="G3" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="65"/>
       <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="19"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="61"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="20" t="s">
@@ -4397,18 +4514,18 @@
         <v>45593</v>
       </c>
       <c r="E5" s="19"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="L5" s="49" t="s">
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="L5" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="68" t="s">
+      <c r="M5" s="54"/>
+      <c r="N5" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="O5" s="69"/>
+      <c r="O5" s="73"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1">
       <c r="A6" s="20" t="s">
@@ -4416,14 +4533,14 @@
       </c>
       <c r="B6" s="26"/>
       <c r="E6" s="19"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="70"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="74"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="20" t="s">
@@ -4431,14 +4548,14 @@
       </c>
       <c r="B7" s="27"/>
       <c r="E7" s="19"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="70"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="74"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="A8" s="20" t="s">
@@ -4446,14 +4563,14 @@
       </c>
       <c r="B8" s="27"/>
       <c r="E8" s="19"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="69"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1">
       <c r="E9" s="19"/>
@@ -4482,680 +4599,680 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
-      <c r="F13" s="29"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="E14" s="13"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="72"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1">
-      <c r="F15" s="29"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="72"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="F16" s="29"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="72"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="F17" s="29"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="F18" s="29"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="74"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:31"/>
     <row r="20" spans="1:31"/>
     <row r="21" spans="1:31"/>
     <row r="22" spans="1:31"/>
     <row r="23" spans="1:31"/>
-    <row r="24" spans="1:31" ht="15">
-      <c r="A24" s="30" t="s">
+    <row r="24" spans="1:31">
+      <c r="A24" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="36" t="s">
+      <c r="I24" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="36" t="s">
+      <c r="J24" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="36" t="s">
+      <c r="K24" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="36" t="s">
+      <c r="L24" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="36" t="s">
+      <c r="M24" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="36" t="s">
+      <c r="N24" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="O24" s="36" t="s">
+      <c r="O24" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="P24" s="36" t="s">
+      <c r="P24" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="Q24" s="36" t="s">
+      <c r="Q24" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="R24" s="36" t="s">
+      <c r="R24" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="36" t="s">
+      <c r="S24" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="T24" s="36" t="s">
+      <c r="T24" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="U24" s="36" t="s">
+      <c r="U24" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="V24" s="36">
+      <c r="V24" s="35">
         <v>21</v>
       </c>
-      <c r="W24" s="36">
+      <c r="W24" s="35">
         <v>22</v>
       </c>
-      <c r="X24" s="36">
+      <c r="X24" s="35">
         <v>23</v>
       </c>
-      <c r="Y24" s="36">
+      <c r="Y24" s="35">
         <v>24</v>
       </c>
-      <c r="Z24" s="36">
+      <c r="Z24" s="35">
         <v>25</v>
       </c>
-      <c r="AA24" s="36">
+      <c r="AA24" s="35">
         <v>26</v>
       </c>
-      <c r="AB24" s="36">
+      <c r="AB24" s="35">
         <v>27</v>
       </c>
-      <c r="AC24" s="36">
+      <c r="AC24" s="35">
         <v>28</v>
       </c>
-      <c r="AD24" s="36">
+      <c r="AD24" s="35">
         <v>29</v>
       </c>
-      <c r="AE24" s="40">
+      <c r="AE24" s="39">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="15">
-      <c r="A25" s="31" t="s">
+    <row r="25" spans="1:31">
+      <c r="A25" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="37"/>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="41"/>
-    </row>
-    <row r="26" spans="1:31" ht="15">
-      <c r="A26" s="31" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="40"/>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="34"/>
-    </row>
-    <row r="27" spans="1:31" ht="15">
-      <c r="A27" s="31" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="33"/>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="41"/>
-    </row>
-    <row r="28" spans="1:31" ht="15">
-      <c r="A28" s="31" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="40"/>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="38"/>
-      <c r="AE28" s="42"/>
-    </row>
-    <row r="29" spans="1:31" ht="15">
-      <c r="A29" s="31" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="41"/>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="41"/>
-    </row>
-    <row r="30" spans="1:31" ht="15">
-      <c r="A30" s="31" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="40"/>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="37"/>
-      <c r="AE30" s="41"/>
-    </row>
-    <row r="31" spans="1:31" ht="15">
-      <c r="A31" s="31" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="40"/>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="41"/>
-    </row>
-    <row r="32" spans="1:31" ht="15">
-      <c r="A32" s="31" t="s">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="40"/>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="37"/>
-      <c r="AE32" s="41"/>
-    </row>
-    <row r="33" spans="1:31" ht="15">
-      <c r="A33" s="31" t="s">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="40"/>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="41"/>
-    </row>
-    <row r="34" spans="1:31" ht="15">
-      <c r="A34" s="31" t="s">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="40"/>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="41"/>
-    </row>
-    <row r="35" spans="1:31" ht="15">
-      <c r="A35" s="31" t="s">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="40"/>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="37"/>
-      <c r="AE35" s="41"/>
-    </row>
-    <row r="36" spans="1:31" ht="15">
-      <c r="A36" s="35" t="s">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="40"/>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="A36" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="37"/>
-      <c r="AE36" s="41"/>
-    </row>
-    <row r="37" spans="1:31" ht="15">
-      <c r="A37" s="31" t="s">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="40"/>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="41"/>
-    </row>
-    <row r="38" spans="1:31" ht="15">
-      <c r="A38" s="31" t="s">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="40"/>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="37"/>
-      <c r="AE38" s="41"/>
-    </row>
-    <row r="39" spans="1:31" ht="15">
-      <c r="A39" s="32" t="s">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="40"/>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="A39" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="39"/>
-      <c r="AB39" s="39"/>
-      <c r="AC39" s="39"/>
-      <c r="AD39" s="39"/>
-      <c r="AE39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="42"/>
     </row>
     <row r="40" spans="1:31"/>
     <row r="41" spans="1:31"/>
@@ -5210,6 +5327,16 @@
     <row r="90"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="L2:O4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J8"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="G17:J17"/>
@@ -5220,16 +5347,6 @@
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="G14:J14"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="L2:O4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J8"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:E18">
     <cfRule type="notContainsText" dxfId="1" priority="1" operator="notContains" text="@">
@@ -5306,91 +5423,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A51BCB1-1F65-4278-812C-6E21ECEE38BA}">
   <dimension ref="A1:AE90"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.25" customWidth="1"/>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.25" customWidth="1"/>
-    <col min="13" max="13" width="16.375" customWidth="1"/>
-    <col min="14" max="15" width="14.25" customWidth="1"/>
-    <col min="16" max="16" width="21.75" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
     <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.125" hidden="1"/>
+    <col min="19" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="G2" s="63" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="G2" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="58"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="62"/>
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="G3" s="62" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="G3" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="65"/>
       <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="19"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="61"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="20" t="s">
@@ -5401,18 +5518,18 @@
         <v>45593</v>
       </c>
       <c r="E5" s="19"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="L5" s="49" t="s">
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="L5" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="68" t="s">
+      <c r="M5" s="54"/>
+      <c r="N5" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="O5" s="69"/>
+      <c r="O5" s="73"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1">
       <c r="A6" s="20" t="s">
@@ -5420,14 +5537,14 @@
       </c>
       <c r="B6" s="26"/>
       <c r="E6" s="19"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="70"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="74"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="20" t="s">
@@ -5435,14 +5552,14 @@
       </c>
       <c r="B7" s="27"/>
       <c r="E7" s="19"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="70"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="74"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="A8" s="20" t="s">
@@ -5450,14 +5567,14 @@
       </c>
       <c r="B8" s="27"/>
       <c r="E8" s="19"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="69"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1">
       <c r="E9" s="19"/>
@@ -5486,175 +5603,179 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
-      <c r="F13" s="29"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="E14" s="13"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="72"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1">
-      <c r="F15" s="29"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="72"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="F16" s="29"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="72"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="F17" s="29"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="F18" s="29"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="74"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:31"/>
     <row r="20" spans="1:31"/>
     <row r="21" spans="1:31"/>
-    <row r="22" spans="1:31"/>
+    <row r="22" spans="1:31">
+      <c r="H22" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
     <row r="23" spans="1:31"/>
     <row r="24" spans="1:31">
-      <c r="Q24" s="36" t="s">
+      <c r="Q24" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="R24" s="36" t="s">
+      <c r="R24" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="36" t="s">
+      <c r="S24" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="T24" s="36" t="s">
+      <c r="T24" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="U24" s="36" t="s">
+      <c r="U24" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="V24" s="36">
+      <c r="V24" s="35">
         <v>21</v>
       </c>
-      <c r="W24" s="36">
+      <c r="W24" s="35">
         <v>22</v>
       </c>
-      <c r="X24" s="36">
+      <c r="X24" s="35">
         <v>23</v>
       </c>
-      <c r="Y24" s="36">
+      <c r="Y24" s="35">
         <v>24</v>
       </c>
-      <c r="Z24" s="36">
+      <c r="Z24" s="35">
         <v>25</v>
       </c>
-      <c r="AA24" s="36">
+      <c r="AA24" s="35">
         <v>26</v>
       </c>
-      <c r="AB24" s="36">
+      <c r="AB24" s="35">
         <v>27</v>
       </c>
-      <c r="AC24" s="36">
+      <c r="AC24" s="35">
         <v>28</v>
       </c>
-      <c r="AD24" s="36">
+      <c r="AD24" s="35">
         <v>29</v>
       </c>
-      <c r="AE24" s="40">
+      <c r="AE24" s="39">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="15">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:31">
+      <c r="A25" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="36" t="s">
+      <c r="I25" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="36" t="s">
+      <c r="J25" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="36" t="s">
+      <c r="K25" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="36" t="s">
+      <c r="L25" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="36" t="s">
+      <c r="M25" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="36" t="s">
+      <c r="N25" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="36" t="s">
+      <c r="O25" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="36" t="s">
+      <c r="P25" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="37"/>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="41"/>
-    </row>
-    <row r="26" spans="1:31" ht="15">
-      <c r="A26" s="31" t="s">
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="40"/>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="2"/>
@@ -5672,44 +5793,44 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="34"/>
-    </row>
-    <row r="27" spans="1:31" ht="15">
-      <c r="A27" s="31" t="s">
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="33"/>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="41"/>
-    </row>
-    <row r="28" spans="1:31" ht="15">
-      <c r="A28" s="31" t="s">
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="40"/>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="2"/>
@@ -5727,24 +5848,24 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="38"/>
-      <c r="AE28" s="42"/>
-    </row>
-    <row r="29" spans="1:31" ht="15">
-      <c r="A29" s="31" t="s">
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="41"/>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="30" t="s">
         <v>102</v>
       </c>
       <c r="B29" s="10"/>
@@ -5762,24 +5883,24 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="41"/>
-    </row>
-    <row r="30" spans="1:31" ht="15">
-      <c r="A30" s="31" t="s">
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="40"/>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B30" s="2"/>
@@ -5797,24 +5918,24 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="37"/>
-      <c r="AE30" s="41"/>
-    </row>
-    <row r="31" spans="1:31" ht="15">
-      <c r="A31" s="31" t="s">
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="40"/>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="2"/>
@@ -5832,24 +5953,24 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="41"/>
-    </row>
-    <row r="32" spans="1:31" ht="15">
-      <c r="A32" s="31" t="s">
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="40"/>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="2"/>
@@ -5867,24 +5988,24 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="37"/>
-      <c r="AE32" s="41"/>
-    </row>
-    <row r="33" spans="1:31" ht="15">
-      <c r="A33" s="31" t="s">
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="40"/>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="2"/>
@@ -5902,24 +6023,24 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="41"/>
-    </row>
-    <row r="34" spans="1:31" ht="15">
-      <c r="A34" s="31" t="s">
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="40"/>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34" s="30" t="s">
         <v>115</v>
       </c>
       <c r="B34" s="2"/>
@@ -5937,24 +6058,24 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="41"/>
-    </row>
-    <row r="35" spans="1:31" ht="15">
-      <c r="A35" s="31" t="s">
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="40"/>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="2"/>
@@ -5972,24 +6093,24 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="37"/>
-      <c r="AE35" s="41"/>
-    </row>
-    <row r="36" spans="1:31" ht="15">
-      <c r="A36" s="31" t="s">
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="40"/>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="A36" s="30" t="s">
         <v>107</v>
       </c>
       <c r="B36" s="2"/>
@@ -6007,24 +6128,24 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="37"/>
-      <c r="AE36" s="41"/>
-    </row>
-    <row r="37" spans="1:31" ht="15">
-      <c r="A37" s="35" t="s">
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="40"/>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37" s="34" t="s">
         <v>108</v>
       </c>
       <c r="B37" s="2"/>
@@ -6042,24 +6163,24 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="41"/>
-    </row>
-    <row r="38" spans="1:31" ht="15">
-      <c r="A38" s="31" t="s">
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="40"/>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38" s="30" t="s">
         <v>109</v>
       </c>
       <c r="B38" s="2"/>
@@ -6077,24 +6198,24 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="37"/>
-      <c r="AE38" s="41"/>
-    </row>
-    <row r="39" spans="1:31" ht="15">
-      <c r="A39" s="31" t="s">
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="40"/>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="A39" s="30" t="s">
         <v>110</v>
       </c>
       <c r="B39" s="2"/>
@@ -6112,24 +6233,24 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="39"/>
-      <c r="AB39" s="39"/>
-      <c r="AC39" s="39"/>
-      <c r="AD39" s="39"/>
-      <c r="AE39" s="43"/>
-    </row>
-    <row r="40" spans="1:31" ht="15">
-      <c r="A40" s="31" t="s">
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="42"/>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="A40" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B40" s="2"/>
@@ -6200,6 +6321,16 @@
     <row r="90"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="L2:O4"/>
@@ -6210,16 +6341,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:E18">
     <cfRule type="notContainsText" dxfId="0" priority="1" operator="notContains" text="@">
@@ -6250,6 +6371,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1" xr:uid="{545DBCB1-4AE1-4DF9-B358-1E42F9378565}"/>
+    <hyperlink ref="H22" location="Test!A1" display="Fyll i Register här" xr:uid="{60142480-0E6A-4423-A338-33D95B7127D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -6290,41 +6412,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x0101001D8086DE273BB341BFCCBE704FA40E7B" ma:contentTypeVersion="16" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="9a38fe384ad07714513db88104fbbc58">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5410bbd8-e5e1-4ec3-a3b0-96f02f0ca709" xmlns:ns4="63dfa01e-ae24-4d9e-bba7-6d54f0ed430c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1113369b7814cabe244f12750c48a409" ns3:_="" ns4:_="">
-    <xsd:import namespace="5410bbd8-e5e1-4ec3-a3b0-96f02f0ca709"/>
-    <xsd:import namespace="63dfa01e-ae24-4d9e-bba7-6d54f0ed430c"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DCD243A65E0A74E80379B8AC88492A0" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f1488769a7a159c1a8dab09776777bb0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0c974035-4cf2-4513-bfe0-4514036753dd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1f0843a323a3a430940086673c9df058" ns2:_="">
+    <xsd:import namespace="0c974035-4cf2-4513-bfe0-4514036753dd"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns4:_activity" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceSystemTags" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6332,109 +6432,27 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5410bbd8-e5e1-4ec3-a3b0-96f02f0ca709" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0c974035-4cf2-4513-bfe0-4514036753dd" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Delat med" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Delat med information" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Delar tips, Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="63dfa01e-ae24-4d9e-bba7-6d54f0ed430c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_activity" ma:index="20" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSystemTags" ma:index="22" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -6447,8 +6465,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -6537,32 +6555,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="63dfa01e-ae24-4d9e-bba7-6d54f0ed430c" xsi:nil="true"/>
-  </documentManagement>
+  <documentManagement/>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42880F1C-7B42-4718-9A70-46E53266056E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E59276-85D5-4969-B2E4-EDECC67B9CB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5774B970-F5ED-4221-BE04-CAB058A043BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="5410bbd8-e5e1-4ec3-a3b0-96f02f0ca709"/>
-    <ds:schemaRef ds:uri="63dfa01e-ae24-4d9e-bba7-6d54f0ed430c"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0c974035-4cf2-4513-bfe0-4514036753dd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -6573,14 +6588,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42880F1C-7B42-4718-9A70-46E53266056E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2648571E-DA87-45D0-AF5A-25D7F7B82F5E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="63dfa01e-ae24-4d9e-bba7-6d54f0ed430c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>